--- a/result/indicator.xlsx
+++ b/result/indicator.xlsx
@@ -106,8 +106,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
-    <cellStyle name="-4067076433361043557" xfId="1" hidden="0"/>
-    <cellStyle name="-6109081414561587062" xfId="2" hidden="0"/>
+    <cellStyle name="1004199704805138033" xfId="1" hidden="0"/>
+    <cellStyle name="-7322982618605918078" xfId="2" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
